--- a/medicine/Sexualité et sexologie/Suçon_(ecchymose)/Suçon_(ecchymose).xlsx
+++ b/medicine/Sexualité et sexologie/Suçon_(ecchymose)/Suçon_(ecchymose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Su%C3%A7on_(ecchymose)</t>
+          <t>Suçon_(ecchymose)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un suçon, ou sucette au Canada francophone, est une petite marque ou ecchymose temporaire, résultant d'une succion de la peau par la bouche, faite de manière suffisamment appuyée et prolongée pour que les vaisseaux sanguins situés sous la peau éclatent. Les suçons sont pratiqués dans l'intimité, ou non, sur un partenaire sexuel ou amoureux, comme un jeu, généralement dans la zone du cou. Ils s'accompagnent parfois d'une morsure.
 </t>
